--- a/StructureDefinition-ms-weight-observation.xlsx
+++ b/StructureDefinition-ms-weight-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-weight-observation.xlsx
+++ b/StructureDefinition-ms-weight-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-weight-observation.xlsx
+++ b/StructureDefinition-ms-weight-observation.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-ms-weight-observation.xlsx
+++ b/StructureDefinition-ms-weight-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-weight-observation.xlsx
+++ b/StructureDefinition-ms-weight-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:53:38-06:00</t>
+    <t>2024-12-02T18:31:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
